--- a/hulk表设计.xlsx
+++ b/hulk表设计.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luryan/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="37520" windowHeight="21140" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="User（用户）" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,14 @@
     <sheet name="LoyaltyPoints（会员积分）" sheetId="4" r:id="rId4"/>
     <sheet name="Account（帐户）" sheetId="5" r:id="rId5"/>
     <sheet name="Match（赛事）" sheetId="7" r:id="rId6"/>
-    <sheet name="ticketFee（门票费）" sheetId="11" r:id="rId7"/>
-    <sheet name="MatchReward（赛事奖励）" sheetId="8" r:id="rId8"/>
+    <sheet name="MatchReward（赛事奖励）" sheetId="8" r:id="rId7"/>
+    <sheet name="matchprice" sheetId="11" r:id="rId8"/>
     <sheet name="Attendance（参赛人员）" sheetId="6" r:id="rId9"/>
     <sheet name="SignIn（签到）" sheetId="9" r:id="rId10"/>
     <sheet name="InvitationCode（邀请码）" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="79">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,6 +378,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ticketFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>门票费用</t>
     <rPh sb="0" eb="1">
       <t>men p fei yong</t>
@@ -452,11 +453,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ticketFeeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
+    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,13 +464,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用</t>
-    <rPh sb="0" eb="1">
-      <t>fei yong</t>
+    <t>online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上价格</t>
+    <rPh sb="0" eb="1">
+      <t>xian s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下价格</t>
+    <rPh sb="0" eb="1">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia ge</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -832,7 +849,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A13"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,22 +928,22 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -968,22 +985,22 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +1014,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1017,10 +1034,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1033,22 +1050,22 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1079,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1106,22 +1123,22 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1135,7 +1152,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1163,22 +1180,22 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1192,10 +1209,13 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1268,22 +1288,22 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1317,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1373,22 +1393,22 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1399,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1430,70 +1450,78 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1504,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1522,43 +1550,51 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1571,11 +1607,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1600,38 +1639,38 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1684,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A9"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1689,22 +1728,22 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/hulk表设计.xlsx
+++ b/hulk表设计.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luryan/Git/Hulk/hulk_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="User（用户）" sheetId="1" r:id="rId1"/>
     <sheet name="Member（会员）" sheetId="2" r:id="rId2"/>
-    <sheet name="OpenId" sheetId="3" r:id="rId3"/>
+    <sheet name="Wechat" sheetId="3" r:id="rId3"/>
     <sheet name="LoyaltyPoints（会员积分）" sheetId="4" r:id="rId4"/>
     <sheet name="Account（帐户）" sheetId="5" r:id="rId5"/>
     <sheet name="Match（赛事）" sheetId="7" r:id="rId6"/>
@@ -26,6 +26,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="77">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,32 +467,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线上价格</t>
-    <rPh sb="0" eb="1">
-      <t>xian s</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jia ge</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线下价格</t>
-    <rPh sb="0" eb="1">
-      <t>xian</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <rPh sb="0" eb="1">
       <t>jia ge</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -849,7 +832,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,7 +997,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1079,7 +1062,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1209,7 +1192,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1422,7 +1405,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1535,7 +1518,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1605,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1639,37 +1622,45 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1683,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
